--- a/app/EmaniProducts.xlsx
+++ b/app/EmaniProducts.xlsx
@@ -12,12 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Apple iPhone 13 (128GB) DarkRed</t>
+  </si>
+  <si>
+    <t>$ 800.00</t>
+  </si>
+  <si>
+    <t>Sleep &amp; Renew Super Serum</t>
+  </si>
+  <si>
+    <t>$ 56.00</t>
+  </si>
   <si>
     <t>Skin Balance Kit</t>
   </si>
   <si>
     <t>$ 65.00</t>
+  </si>
+  <si>
+    <t>Hydrate &amp; Glow Skin Kit</t>
+  </si>
+  <si>
+    <t>$ 54.00</t>
+  </si>
+  <si>
+    <t>Perfect Skin Kit</t>
+  </si>
+  <si>
+    <t>$ 99.00</t>
+  </si>
+  <si>
+    <t>Clear Skin Kit</t>
+  </si>
+  <si>
+    <t>Miracle Serum</t>
+  </si>
+  <si>
+    <t>$ 38.00</t>
+  </si>
+  <si>
+    <t>MIRACLE &amp; HYDRAWEAR KIT</t>
+  </si>
+  <si>
+    <t>$ 59.00</t>
   </si>
 </sst>
 </file>
@@ -78,18 +117,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -102,42 +141,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
